--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,26 +12,443 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>MetaScore</t>
-  </si>
-  <si>
-    <t>UserScore</t>
-  </si>
-  <si>
-    <t>Descrição</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="167">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Popularity</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
+    <t>Fast &amp; Furious Presents: Hobbs &amp; Shaw</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Brixton Lorr is a cybernetically enhanced soldier who possesses superhuman strength, a brilliant mind and a lethal pathogen that could wipe out half of the world's population. It's now up to hulking lawman Luke Hobbs and lawless operative Deckard Shaw to put aside their past differences and work together to prevent the seemingly indestructible Lorr from destroying humanity.</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/fast_and_furious_presents_hobbs_and_shaw</t>
+  </si>
+  <si>
+    <t>Fast &amp; Furious 6</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Since Dom (Vin Diesel) and Brian's (Paul Walker) heist in Rio left them and their crew very rich people, they've scattered across the globe; however, they must still live as fugitives, unable to return home to their families. Meanwhile, Agent Hobbs (Dwayne Johnson) has been tracking a gang of lethally skilled mercenary drivers whose second-in-command is someone Dom knows. Unable to take them down himself, Hobbs asks Dom and his crew for help in exchange for full pardons for everyone.</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/fast_and_furious_6</t>
+  </si>
+  <si>
+    <t>Fast &amp; Furious</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>When a crime brings them back to the mean streets of Los Angeles, fugitive ex-convict Dom Toretto (Vin Diesel) and agent Brian O'Conner (Paul Walker) reignite their high-octane feud. However, when a common enemy rears his head, Dom and Brian must learn how to work together and trust one another in order to defeat him.</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/fast_and_furious</t>
+  </si>
+  <si>
+    <t>Fast and Furious</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>To beat the summertime heat, booksellers Joel (Franchot Tone) and Garda Sloane (Ann Sothern) go for a vacation in a breezy coastal city. Joel's friend Mike Stevens (Lee Bowman) is holding a beauty pageant there, and Joel, much to his wife's chagrin, is set to judge the attractive contestants. But a dispute with local mobsters over kickbacks leads to murder, with Mike in jail for the crime. And so it's back to work for Joel and Garda, as the sometime sleuths try to solve the mystery.</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/fast_and_furious_1939</t>
+  </si>
+  <si>
+    <t>Fast &amp; Furious Presents: Hobbs &amp; Shaw: Trailer</t>
+  </si>
+  <si>
+    <t>A quick look at the movie "Fast &amp; Furious Presents: Hobbs &amp; Shaw."</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/fast_and_furious_presents_hobbs_and_shaw_trailer</t>
+  </si>
+  <si>
+    <t>Tasmanian Devil: The Fast and Furious Life of Errol Flynn</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>The other side of Tasmanian-born actor Errol Flynn who had ambitions of becoming a serious writer .</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/tasmanian-devil-the-fast-and-furious-life-of-errol-flynn</t>
+  </si>
+  <si>
+    <t>Fast X</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Over many missions and against impossible odds, Dom Toretto (Vin Diesel) and his family have outsmarted, out-nerved and outdriven every foe in their path. Now, they confront the most lethal opponent they've ever faced: A terrifying threat emerging from the shadows of the past who's fueled by blood revenge, and who is determined to shatter this family and destroy everything--and everyone--that Dom loves, forever.</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/fast_x</t>
+  </si>
+  <si>
+    <t>F9 The Fast Saga</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Vin Diesel's Dom Toretto is leading a quiet life off the grid with Letty and his son, little Brian, but they know that danger always lurks just over their peaceful horizon. This time, that threat will force Dom to confront the sins of his past if he's going to save those he loves most. His crew joins together to stop a world-shattering plot led by the most skilled assassin and high-performance driver they've ever encountered: a man who also happens to be Dom's forsaken brother, Jakob (John Cena, the upcoming The Suicide Squad).</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/f9</t>
+  </si>
+  <si>
+    <t>The Fate of the Furious</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>With Dom and Letty married, Brian and Mia retired and the rest of the crew exonerated, the globe-trotting team has found some semblance of a normal life. They soon face an unexpected challenge when a mysterious woman named Cipher forces Dom to betray them all. Now, they must unite to bring home the man who made them a family and stop Cipher from unleashing chaos.</t>
+  </si>
+  <si>
+    <t>https://www.rottentomatoes.com/m/the_fate_of_the_furious</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos 9</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Dom and the crew must take on an international terrorist who turns out to be Dom and Mia's estranged brother.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt5433138/?ref_=fn_tt_tt_1</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos 4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Brian O'Conner, back working for the FBI in Los Angeles, teams up with Dominic Toretto to bring down a heroin importer by infiltrating his operation.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt1013752/?ref_=fn_tt_tt_2</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Los Angeles police officer Brian O'Conner must decide where his loyalty really lies when he becomes enamored with the street racing world he has been sent undercover to destroy.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0232500/?ref_=fn_tt_tt_3</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos 7</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Deckard Shaw seeks revenge against Dominic Toretto and his family for his comatose brother.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt2820852/?ref_=fn_tt_tt_4</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos 8</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>When a mysterious woman seduces Dominic Toretto into the world of terrorism and a betrayal of those closest to him, the crew face trials that will test them as never before.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt4630562/?ref_=fn_tt_tt_5</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos 5: Operação Rio</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Dominic Toretto and his crew of street racers plan a massive heist to buy their freedom while in the sights of a powerful Brazilian drug lord and a dangerous federal agent.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt1596343/?ref_=fn_tt_tt_6</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos 6</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Hobbs has Dominic and Brian reassemble their crew to take down a team of mercenaries: Dominic unexpectedly gets sidetracked with facing his presumed deceased girlfriend, Letty.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt1905041/?ref_=fn_tt_tt_7</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos: Hobbs &amp; Shaw</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Lawman Luke Hobbs and outcast Deckard Shaw form an unlikely alliance when a cyber-genetically enhanced villain threatens the future of humanity.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt6806448/?ref_=fn_tt_tt_8</t>
+  </si>
+  <si>
+    <t>Velozes &amp; Furiosos: Desafio em Tóquio</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>A teenager becomes a major competitor in the world of drift racing after moving in with his father in Tokyo to avoid a jail sentence in America.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0463985/?ref_=fn_tt_tt_9</t>
+  </si>
+  <si>
+    <t>Velozes e Furiosos 10</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Dom Toretto and his family are targeted by the vengeful son of drug kingpin Hernan Reyes.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt5433140/?ref_=fn_tt_tt_10</t>
+  </si>
+  <si>
     <t>The Fast and the Furious</t>
   </si>
   <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>A trucker framed for murder breaks out of jail, takes a young woman hostage, and enters her sports car in cross-border road race hoping to get to Mexico before the police catch him.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0046969/?ref_=fn_tt_tt_11</t>
+  </si>
+  <si>
+    <t>+ Velozes + Furiosos</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Former cop Brian O'Conner is called upon to bust a dangerous criminal and he recruits the help of a former childhood friend and street racer who has a chance to redeem himself.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0322259/?ref_=fn_tt_tt_12</t>
+  </si>
+  <si>
+    <t>Um Casal Como Poucos</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Rare book dealers Joel and Garda take a summertime jaunt to the seashore where he becomes involved in a beauty pageant as investor and judge much to her chagrin.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0031298/?ref_=fn_tt_tt_13</t>
+  </si>
+  <si>
+    <t>Untitled Fast &amp; Furious Film</t>
+  </si>
+  <si>
+    <t>Plot kept under wraps.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt27920268/?ref_=fn_tt_tt_14</t>
+  </si>
+  <si>
+    <t>À Toda a Velocidade</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>A man hopes to win a girl by winning a motor race.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0017866/?ref_=fn_tt_tt_15</t>
+  </si>
+  <si>
+    <t>Fast &amp; Furious Female Spin Off</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt9684936/?ref_=fn_tt_tt_16</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0799767/?ref_=fn_tt_tt_17</t>
+  </si>
+  <si>
+    <t>Furious and Fast: The Story of Fast Music and the Patiphone</t>
+  </si>
+  <si>
+    <t>A funny and touching music documentary about the rise and fall of the independent "Fast Music" label and "The Patiphone" club in Tel-Aviv from the late 90's till the late 00's.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt7167938/?ref_=fn_tt_tt_18</t>
+  </si>
+  <si>
+    <t>Super Velozes, Mega Furiosos</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3,232</t>
+  </si>
+  <si>
+    <t>A spoof on Velozes &amp; Furiosos (2001) and the following F&amp;F movies. An undercover cop joins a gang of criminal street racers to get close to the LA crime kingpin.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt2933474/?ref_=fn_tt_tt_19</t>
+  </si>
+  <si>
+    <t>2 Fast, 2 Furious</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt13943572/?ref_=fn_tt_tt_20</t>
+  </si>
+  <si>
+    <t>Furious Fast Atlanta</t>
+  </si>
+  <si>
+    <t>Furious Fast Atlanta is a Complete remastered directors execution of Four Amigos captured in 8K. With new color grades, sequence flow, and a brand new music score. It's a new alternative tak... Read all</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt26343494/?ref_=fn_tt_tt_21</t>
+  </si>
+  <si>
+    <t>Zoo Fast Zoo Furious</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt13320858/?ref_=fn_tt_tt_22</t>
+  </si>
+  <si>
+    <t>Fast &amp; Serious</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>A group of 6 writers have a deadline yo meet to come up with a script for the next Fast and Furious movie. Intertwined with unrelated short films.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt15367730/?ref_=fn_tt_tt_23</t>
+  </si>
+  <si>
+    <t>Fist &amp; Furious</t>
+  </si>
+  <si>
+    <t>VJ Kuk-hyun is freelance reporter who has six sense of catching exclusive event. Gi-man is a detective who is living through trauma from losing his partner. With these two together, things a... Read all</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt10660436/?ref_=fn_tt_tt_24</t>
+  </si>
+  <si>
+    <t>Vet hard</t>
+  </si>
+  <si>
+    <t>Bennie, a clumsy criminal who's touchy about his weight, teams up with his adoptive father's biological (serial killer) son, his employees who in his absence turned his snack-bar into a quic... Read all</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0382365/?ref_=fn_tt_tt_25</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
@@ -44,30 +461,18 @@
     <t>https://www.metacritic.com/movie/the-fast-and-the-furious</t>
   </si>
   <si>
-    <t>Fast &amp; Furious 6</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
     <t>Hobbs (Dwayne Johnson) asks Dom (Vin Diesel) and Brian (Paul Walker) to help him take down an organization of lethally skilled mercenary drivers. In return, their crew will receive full pardons and be allowed to return home.</t>
   </si>
   <si>
     <t>https://www.metacritic.com/movie/fast-furious-6</t>
   </si>
   <si>
-    <t>Fast &amp; Furious</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>It’s been eight years since ex-con Dominic Toretto drove across the Mexican border, committing himself to a fugitive existence. Now, holed up in a beach shack in the Dominican Republic, and living on the run with the sole remnant of his past, Letty, he tries to piece together a new life. But he knows the authorities are always just stepsIt’s been eight years since ex-con Dominic Toretto drove across the Mexican border, committing himself to a fugitive existence. Now, holed up in a beach shack in the Dominican Republic, and living on the run with the sole remnant of his past, Letty, he tries to piece together a new life. But he knows the authorities are always just steps behind him. And, when a tragic death of someone he loves brings Brian O’Conner back to L.A., Dom reignites his feud with the agent. As they are forced to confront a shared enemy, a sociopathic drug kingpin who is flooding the U.S. with lethal product, Dom and Brian must give in to an uncertain new trust if they hope to outmaneuver him and avenge the tragedy that he caused their small de facto family to endure. [Universal Pictures]… Expand</t>
   </si>
   <si>
@@ -99,9 +504,6 @@
   </si>
   <si>
     <t>https://www.metacritic.com/movie/2-fast-2-furious</t>
-  </si>
-  <si>
-    <t>Fast &amp; Furious Presents: Hobbs &amp; Shaw</t>
   </si>
   <si>
     <t>60</t>
@@ -155,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -237,47 +639,625 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
